--- a/Data/OtherTemplates/POSCPD_WorkLok.xlsx
+++ b/Data/OtherTemplates/POSCPD_WorkLok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\VISA POS CPD SETTLEMENT\Data\OtherTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\VISA POS CPD SETTLEMENT\Data\OtherTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51C7EB-4CA4-405D-B6DB-D65FAFEB5A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCCEE8-FC29-4336-9131-1F20B6E092A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
+    <workbookView xWindow="10095" yWindow="0" windowWidth="10305" windowHeight="10485" firstSheet="22" activeTab="23" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
   </bookViews>
   <sheets>
     <sheet name="Issuer Visa Dr" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
     <sheet name="Terw PayA Dr Sheet" sheetId="20" r:id="rId20"/>
     <sheet name="Acq Payment Sheet" sheetId="21" r:id="rId21"/>
     <sheet name="Sokoto Sheet" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="24" r:id="rId23"/>
+    <sheet name="Debit Schedule" sheetId="23" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -955,28 +957,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -986,7 +979,6 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2 2 2 2 2 12" xfId="1" xr:uid="{A687E96F-06B5-4276-A34A-FA1517A468CA}"/>
@@ -1310,223 +1302,218 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="21.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="25.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="30.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="22" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
+    <col min="29" max="29" width="25.140625" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="30.85546875" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
-    <row r="2" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109453" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D109453" s="1">
+      <c r="D109453">
         <v>1789299115</v>
       </c>
-      <c r="E109453" s="1">
+      <c r="E109453">
         <v>1788123473.5</v>
       </c>
     </row>
@@ -1557,368 +1544,368 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CR1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CU1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="CW1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DA1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DC1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DD1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="DE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="DF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="DG1" s="9" t="s">
+      <c r="DG1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DH1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DI1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="DK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="DL1" s="9" t="s">
+      <c r="DL1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="DM1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="DN1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DO1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DP1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1942,368 +1929,368 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CR1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CU1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="CW1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DA1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DC1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DD1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="DE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="DF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="DG1" s="9" t="s">
+      <c r="DG1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DH1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DI1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="DK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="DL1" s="9" t="s">
+      <c r="DL1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="DM1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="DN1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DO1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DP1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2331,373 +2318,373 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AI1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AN1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BA1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BB1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BC1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BD1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BE1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BF1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BG1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BI1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BK1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BL1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BM1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BN1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BO1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BP1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BR1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BS1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BT1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BU1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BV1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BW1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BX1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BY1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CA1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CB1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CC1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CD1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CE1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CF1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CG1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CH1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CI1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CK1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CL1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CM1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CN1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CO1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CP1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CR1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CS1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CT1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CU1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="CV1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CW1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="CX1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="CY1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="CZ1" s="13" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="DA1" s="13" t="s">
+      <c r="DA1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DB1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DC1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DD1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DE1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DF1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DG1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DH1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DI1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DK1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="DL1" s="13" t="s">
+      <c r="DL1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DM1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DN1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DO1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DP1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:121" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2726,368 +2713,368 @@
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CR1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CU1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="CW1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DA1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DC1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DD1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="DE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="DF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="DG1" s="9" t="s">
+      <c r="DG1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DH1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DI1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="DK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="DL1" s="9" t="s">
+      <c r="DL1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="DM1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="DN1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DO1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DP1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3098,7 +3085,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C75758-7CFE-4DAE-AB33-A3805EB520A5}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3123,51 +3110,47 @@
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3175,7 +3158,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E32B83-ED69-424C-B2BB-D471F8F75647}">
-  <dimension ref="A1:BY2"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3202,100 +3185,99 @@
     <col min="20" max="20" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
-    <row r="2" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3329,98 +3311,98 @@
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,98 +3419,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3545,98 +3527,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3653,98 +3635,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3773,177 +3755,177 @@
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3960,98 +3942,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4060,7 +4042,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB02EB7-65EF-41E1-828D-AB5B610E3F02}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
@@ -4082,47 +4064,46 @@
     <col min="13" max="13" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4158,87 +4139,113 @@
     <col min="26" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="9" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DC9976-F9C0-4710-AD41-63A13BEC0F38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37869D1-A901-4DC6-9A5E-761AFB517F21}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4260,177 +4267,177 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,177 +4463,177 @@
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4654,177 +4661,177 @@
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,177 +4863,177 @@
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:77" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5035,7 +5042,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D8D658-BE3E-4E69-8F4A-7EFF90CECAC4}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -5053,33 +5060,32 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5089,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63332DF4-CC71-4F48-9938-635F4E7378D6}">
   <dimension ref="A1:FG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+    <sheetView topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
@@ -5104,494 +5110,494 @@
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:163" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BK1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BL1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BM1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CR1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CU1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="CW1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DC1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="DE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="DF1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DG1" s="9" t="s">
+      <c r="DG1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DH1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DI1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="DK1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DL1" s="9" t="s">
+      <c r="DL1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="DM1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="DN1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DO1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DP1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="DR1" s="9" t="s">
+      <c r="DR1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="DS1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="DT1" s="9" t="s">
+      <c r="DT1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="DU1" s="9" t="s">
+      <c r="DU1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="DV1" s="9" t="s">
+      <c r="DV1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="DW1" s="9" t="s">
+      <c r="DW1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="DX1" s="9" t="s">
+      <c r="DX1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="DY1" s="9" t="s">
+      <c r="DY1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="DZ1" s="9" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EA1" s="9" t="s">
+      <c r="EA1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EB1" s="9" t="s">
+      <c r="EB1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EC1" s="9" t="s">
+      <c r="EC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="ED1" s="9" t="s">
+      <c r="ED1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EE1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EF1" s="9" t="s">
+      <c r="EF1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EG1" s="9" t="s">
+      <c r="EG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EH1" s="9" t="s">
+      <c r="EH1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="EI1" s="9" t="s">
+      <c r="EI1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="EJ1" s="9" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="EK1" s="9" t="s">
+      <c r="EK1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="EL1" s="9" t="s">
+      <c r="EL1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EM1" s="9" t="s">
+      <c r="EM1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="EN1" s="9" t="s">
+      <c r="EN1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="EO1" s="9" t="s">
+      <c r="EO1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="EP1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="ER1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="ES1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="ET1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EU1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="EV1" s="9" t="s">
+      <c r="EV1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="EW1" s="9" t="s">
+      <c r="EW1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="EX1" s="9" t="s">
+      <c r="EX1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="EY1" s="9" t="s">
+      <c r="EY1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="EZ1" s="9" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FA1" s="9" t="s">
+      <c r="FA1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="FB1" s="9" t="s">
+      <c r="FB1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="FC1" s="9" t="s">
+      <c r="FC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="FD1" s="9" t="s">
+      <c r="FD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="FE1" s="9" t="s">
+      <c r="FE1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="FF1" s="9" t="s">
+      <c r="FF1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="FG1" s="9" t="s">
+      <c r="FG1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5624,77 +5630,77 @@
     <col min="11" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="4" t="s">
         <v>196</v>
       </c>
     </row>
